--- a/log/201608040135_蔡明.xlsx
+++ b/log/201608040135_蔡明.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428568B8-93D4-4C54-85F7-FD0B0A7AE13E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18468" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
   <si>
     <t>原计划</t>
   </si>
@@ -31,41 +31,455 @@
     <t>问题与后续计划</t>
   </si>
   <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>时间</t>
+    <t>18.11.20</t>
+  </si>
+  <si>
+    <t>12：00--8:00</t>
+  </si>
+  <si>
+    <t>学习前端框架</t>
+  </si>
+  <si>
+    <t>完成部分指令实践和学习</t>
+  </si>
+  <si>
+    <t>继续学习前端框架</t>
+  </si>
+  <si>
+    <t>18.11.21</t>
+  </si>
+  <si>
+    <t>5：00--8:00</t>
+  </si>
+  <si>
+    <t>完成部分组件的学习</t>
+  </si>
+  <si>
+    <t>分步学习html、css、jsp</t>
+  </si>
+  <si>
+    <t>18.11.22</t>
+  </si>
+  <si>
+    <t>5：00--7:00</t>
+  </si>
+  <si>
+    <t>学习基础html</t>
+  </si>
+  <si>
+    <t>完成学习</t>
+  </si>
+  <si>
+    <t>学习css</t>
+  </si>
+  <si>
+    <t>18.11.23</t>
+  </si>
+  <si>
+    <t>学习基础css</t>
+  </si>
+  <si>
+    <t>学习jsp</t>
+  </si>
+  <si>
+    <t>18.11.24</t>
+  </si>
+  <si>
+    <t>6：00--8:00</t>
+  </si>
+  <si>
+    <t>学习基础jsp</t>
+  </si>
+  <si>
+    <t>深入学习html、css、jsp</t>
+  </si>
+  <si>
+    <t>18.11.25</t>
+  </si>
+  <si>
+    <t>3：00--6:00</t>
+  </si>
+  <si>
+    <t>登录界面搭建</t>
+  </si>
+  <si>
+    <t>18.11.26</t>
+  </si>
+  <si>
+    <t>结合需求分析，进行前端登录界面搭建</t>
+  </si>
+  <si>
+    <t>对element的基础组件进行了学习，有了搭建的思路</t>
+  </si>
+  <si>
+    <t>继续搭建登录界面</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -73,24 +487,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -139,7 +839,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -174,7 +874,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -348,50 +1048,166 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="16.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="38.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="48.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/log/201608040135_蔡明.xlsx
+++ b/log/201608040135_蔡明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9924"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>日期</t>
   </si>
@@ -112,7 +112,88 @@
     <t>对element的基础组件进行了学习，有了搭建的思路</t>
   </si>
   <si>
-    <t>继续搭建登录界面</t>
+    <t>前端学习进阶</t>
+  </si>
+  <si>
+    <t>18.11.27</t>
+  </si>
+  <si>
+    <t>9:30-11:30</t>
+  </si>
+  <si>
+    <t>需求分析讨论修改</t>
+  </si>
+  <si>
+    <t>共同完成对需求分析的改进修改</t>
+  </si>
+  <si>
+    <t>18.11.28</t>
+  </si>
+  <si>
+    <t>14:00-18:00</t>
+  </si>
+  <si>
+    <t>着重学习css的复杂选择器、权重</t>
+  </si>
+  <si>
+    <t>部分完成</t>
+  </si>
+  <si>
+    <t>继续学习css</t>
+  </si>
+  <si>
+    <t>18.11.29</t>
+  </si>
+  <si>
+    <t>14:30-18:00</t>
+  </si>
+  <si>
+    <t>css的复杂选择器、权重继续学习</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>css继续学习</t>
+  </si>
+  <si>
+    <t>18.11.30</t>
+  </si>
+  <si>
+    <t>15:00-18:30</t>
+  </si>
+  <si>
+    <t>css开发经验、习惯、层模型、盒子模型</t>
+  </si>
+  <si>
+    <t>css进阶继续</t>
+  </si>
+  <si>
+    <t>18.12.1</t>
+  </si>
+  <si>
+    <t>15:00-18:00</t>
+  </si>
+  <si>
+    <t>css包裹浮动元素、文字溢出、实战</t>
+  </si>
+  <si>
+    <t>18.12.2</t>
+  </si>
+  <si>
+    <t>18:00-20:00</t>
+  </si>
+  <si>
+    <t>css项目演练1</t>
+  </si>
+  <si>
+    <t>18.12.3</t>
+  </si>
+  <si>
+    <t>css项目演练2</t>
+  </si>
+  <si>
+    <t>18.12.4</t>
   </si>
 </sst>
 </file>
@@ -120,12 +201,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,64 +216,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -208,11 +259,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,22 +285,37 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,31 +329,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,31 +368,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,151 +548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,32 +562,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,8 +580,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,179 +621,195 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1054,19 +1129,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15.2222222222222" customWidth="1"/>
     <col min="2" max="2" width="16.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="38.4444444444444" customWidth="1"/>
     <col min="4" max="4" width="48.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="23.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="34.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1203,6 +1278,142 @@
       </c>
       <c r="E8" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/log/201608040135_蔡明.xlsx
+++ b/log/201608040135_蔡明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="21000" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>日期</t>
   </si>
@@ -194,6 +194,66 @@
   </si>
   <si>
     <t>18.12.4</t>
+  </si>
+  <si>
+    <t>18.12.5</t>
+  </si>
+  <si>
+    <t>16:00-18:00</t>
+  </si>
+  <si>
+    <t>完成了基本的搭建</t>
+  </si>
+  <si>
+    <t>继续搭建登录页面</t>
+  </si>
+  <si>
+    <t>18.12.6</t>
+  </si>
+  <si>
+    <t>优化了登录界面背景，样式</t>
+  </si>
+  <si>
+    <t>登录界面加入功能</t>
+  </si>
+  <si>
+    <t>18.12.7</t>
+  </si>
+  <si>
+    <t>登录页面加入忘记密码、注册功能</t>
+  </si>
+  <si>
+    <t>首页导航的设计实现</t>
+  </si>
+  <si>
+    <t>18.12.8</t>
+  </si>
+  <si>
+    <t>首页导航的基本设计完成一部分</t>
+  </si>
+  <si>
+    <t>18.12.9</t>
+  </si>
+  <si>
+    <t>首页导航的基本设计完成</t>
+  </si>
+  <si>
+    <t>18.12.10</t>
+  </si>
+  <si>
+    <t>优化了导航的背景和样式</t>
+  </si>
+  <si>
+    <t>首页导航的分功能编写</t>
+  </si>
+  <si>
+    <t>18.12.11</t>
+  </si>
+  <si>
+    <t>分功能页面设计模板</t>
+  </si>
+  <si>
+    <t>继续分功能模板设计</t>
   </si>
 </sst>
 </file>
@@ -216,14 +276,75 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,8 +358,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,11 +380,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,98 +418,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -368,187 +428,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,26 +622,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,17 +663,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -645,17 +685,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,10 +725,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,133 +737,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,10 +1189,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1416,6 +1476,125 @@
         <v>28</v>
       </c>
     </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
